--- a/src/predicciones/holt_winters/producto_182.xlsx
+++ b/src/predicciones/holt_winters/producto_182.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,805 +404,1300 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>1.013305993195938</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44933</v>
       </c>
       <c r="B3">
-        <v>1.586640699477631</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44935</v>
       </c>
       <c r="B4">
-        <v>1.216122829750972</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44936</v>
       </c>
       <c r="B5">
-        <v>1.714184578877168</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44939</v>
       </c>
       <c r="B6">
-        <v>1.577383839868576</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44940</v>
       </c>
       <c r="B7">
-        <v>0.8208739069547832</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44942</v>
       </c>
       <c r="B8">
-        <v>1.064399705009756</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44945</v>
       </c>
       <c r="B9">
-        <v>0.9933200781744047</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44946</v>
       </c>
       <c r="B10">
-        <v>1.566654784456098</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44950</v>
       </c>
       <c r="B11">
-        <v>1.196136914729439</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44952</v>
       </c>
       <c r="B12">
-        <v>1.694198663855635</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44957</v>
       </c>
       <c r="B13">
-        <v>1.557397924847043</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44963</v>
       </c>
       <c r="B14">
-        <v>0.8008879919332499</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44967</v>
       </c>
       <c r="B15">
-        <v>1.044413789988223</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44971</v>
       </c>
       <c r="B16">
-        <v>0.9733341631528714</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44973</v>
       </c>
       <c r="B17">
-        <v>1.546668869434564</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44977</v>
       </c>
       <c r="B18">
-        <v>1.176150999707906</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44985</v>
       </c>
       <c r="B19">
-        <v>1.674212748834102</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44989</v>
       </c>
       <c r="B20">
-        <v>1.53741200982551</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44990</v>
       </c>
       <c r="B21">
-        <v>0.7809020769117168</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44991</v>
       </c>
       <c r="B22">
-        <v>1.02442787496669</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44993</v>
       </c>
       <c r="B23">
-        <v>0.9533482481313382</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44995</v>
       </c>
       <c r="B24">
-        <v>1.526682954413031</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45003</v>
       </c>
       <c r="B25">
-        <v>1.156165084686373</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45004</v>
       </c>
       <c r="B26">
-        <v>1.654226833812568</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45007</v>
       </c>
       <c r="B27">
-        <v>1.517426094803977</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45011</v>
       </c>
       <c r="B28">
-        <v>0.7609161618901836</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45013</v>
       </c>
       <c r="B29">
-        <v>1.004441959945157</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45016</v>
       </c>
       <c r="B30">
-        <v>0.9333623331098051</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45020</v>
       </c>
       <c r="B31">
-        <v>1.506697039391498</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45029</v>
       </c>
       <c r="B32">
-        <v>1.13617916966484</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45039</v>
       </c>
       <c r="B33">
-        <v>1.634240918791035</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45041</v>
       </c>
       <c r="B34">
-        <v>1.497440179782443</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45043</v>
       </c>
       <c r="B35">
-        <v>0.7409302468686503</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45056</v>
       </c>
       <c r="B36">
-        <v>0.9844560449236233</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45061</v>
       </c>
       <c r="B37">
-        <v>0.9133764180882717</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45062</v>
       </c>
       <c r="B38">
-        <v>1.486711124369965</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45063</v>
       </c>
       <c r="B39">
-        <v>1.116193254643306</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45070</v>
       </c>
       <c r="B40">
-        <v>1.614255003769502</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45071</v>
       </c>
       <c r="B41">
-        <v>1.47745426476091</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45076</v>
       </c>
       <c r="B42">
-        <v>0.7209443318471171</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45077</v>
       </c>
       <c r="B43">
-        <v>0.9644701299020901</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45078</v>
       </c>
       <c r="B44">
-        <v>0.8933905030667386</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45079</v>
       </c>
       <c r="B45">
-        <v>1.466725209348432</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45080</v>
       </c>
       <c r="B46">
-        <v>1.096207339621773</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45081</v>
       </c>
       <c r="B47">
-        <v>1.594269088747969</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45082</v>
       </c>
       <c r="B48">
-        <v>1.457468349739377</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45085</v>
       </c>
       <c r="B49">
-        <v>0.700958416825584</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45094</v>
       </c>
       <c r="B50">
-        <v>0.944484214880557</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45096</v>
       </c>
       <c r="B51">
-        <v>0.8734045880452055</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45102</v>
       </c>
       <c r="B52">
-        <v>1.446739294326898</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45104</v>
       </c>
       <c r="B53">
-        <v>1.07622142460024</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45105</v>
       </c>
       <c r="B54">
-        <v>1.574283173726435</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45106</v>
       </c>
       <c r="B55">
-        <v>1.437482434717844</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45109</v>
       </c>
       <c r="B56">
-        <v>0.6809725018040507</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45111</v>
       </c>
       <c r="B57">
-        <v>0.9244982998590237</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45115</v>
       </c>
       <c r="B58">
-        <v>0.8534186730236721</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45116</v>
       </c>
       <c r="B59">
-        <v>1.426753379305365</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45119</v>
       </c>
       <c r="B60">
-        <v>1.056235509578707</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45120</v>
       </c>
       <c r="B61">
-        <v>1.554297258704902</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45124</v>
       </c>
       <c r="B62">
-        <v>1.41749651969631</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45125</v>
       </c>
       <c r="B63">
-        <v>0.6609865867825175</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45127</v>
       </c>
       <c r="B64">
-        <v>0.9045123848374905</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45128</v>
       </c>
       <c r="B65">
-        <v>0.833432758002139</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45143</v>
       </c>
       <c r="B66">
-        <v>1.406767464283832</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45144</v>
       </c>
       <c r="B67">
-        <v>1.036249594557173</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45145</v>
       </c>
       <c r="B68">
-        <v>1.534311343683369</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45149</v>
       </c>
       <c r="B69">
-        <v>1.397510604674777</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45154</v>
       </c>
       <c r="B70">
-        <v>0.6410006717609844</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45163</v>
       </c>
       <c r="B71">
-        <v>0.8845264698159574</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45167</v>
       </c>
       <c r="B72">
-        <v>0.8134468429806059</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45173</v>
       </c>
       <c r="B73">
-        <v>1.386781549262299</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45174</v>
       </c>
       <c r="B74">
-        <v>1.01626367953564</v>
+        <v>1</v>
       </c>
       <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
         <v>1</v>
       </c>
     </row>
